--- a/opset_22/Intel - oneDNN/report_DnnlExecutionProvider.xlsx
+++ b/opset_22/Intel - oneDNN/report_DnnlExecutionProvider.xlsx
@@ -6322,7 +6322,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-08-29 10:47:08</t>
+          <t>2025-11-18 14:39:59</t>
         </is>
       </c>
     </row>

--- a/opset_22/Intel - oneDNN/report_DnnlExecutionProvider.xlsx
+++ b/opset_22/Intel - oneDNN/report_DnnlExecutionProvider.xlsx
@@ -6322,7 +6322,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-11-18 14:39:59</t>
+          <t>2025-11-18 14:52:59</t>
         </is>
       </c>
     </row>
